--- a/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.25734624989147</v>
+        <v>14.32579081856069</v>
       </c>
       <c r="C2">
-        <v>9.944611092696876</v>
+        <v>5.687541871535383</v>
       </c>
       <c r="D2">
-        <v>10.65245796746349</v>
+        <v>11.58507149001378</v>
       </c>
       <c r="E2">
-        <v>7.033014037482754</v>
+        <v>7.975513243881879</v>
       </c>
       <c r="F2">
-        <v>64.26700530194968</v>
+        <v>65.83384032270104</v>
       </c>
       <c r="G2">
-        <v>2.104007160515138</v>
+        <v>2.15267539594192</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.04253335091426</v>
+        <v>10.43688173961992</v>
       </c>
       <c r="L2">
-        <v>7.150205869201415</v>
+        <v>6.858638598851257</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.94139353420923</v>
+        <v>13.5851492861791</v>
       </c>
       <c r="C3">
-        <v>9.280651435977378</v>
+        <v>5.458220115828103</v>
       </c>
       <c r="D3">
-        <v>10.24211424381887</v>
+        <v>11.18524154963079</v>
       </c>
       <c r="E3">
-        <v>6.933658422702704</v>
+        <v>7.786727954724062</v>
       </c>
       <c r="F3">
-        <v>60.69363333974835</v>
+        <v>62.51868706638355</v>
       </c>
       <c r="G3">
-        <v>2.118275154177191</v>
+        <v>2.163989378958572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.83256845240463</v>
+        <v>9.742404132288209</v>
       </c>
       <c r="L3">
-        <v>6.937794462248554</v>
+        <v>6.692896900255289</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.13936418831153</v>
+        <v>13.12864264467924</v>
       </c>
       <c r="C4">
-        <v>8.858349788935387</v>
+        <v>5.314590654967708</v>
       </c>
       <c r="D4">
-        <v>9.987818263968185</v>
+        <v>10.93534780024246</v>
       </c>
       <c r="E4">
-        <v>6.875027963043902</v>
+        <v>7.672786539266624</v>
       </c>
       <c r="F4">
-        <v>58.44835314044565</v>
+        <v>60.42826334310919</v>
       </c>
       <c r="G4">
-        <v>2.127165431610575</v>
+        <v>2.171073929288055</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.05796933581819</v>
+        <v>9.446140022243704</v>
       </c>
       <c r="L4">
-        <v>6.811290636269394</v>
+        <v>6.594666534829974</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.80887779760866</v>
+        <v>12.94239358948493</v>
       </c>
       <c r="C5">
-        <v>8.682431574672954</v>
+        <v>5.255297947558936</v>
       </c>
       <c r="D5">
-        <v>9.883592477637963</v>
+        <v>10.83242386970723</v>
       </c>
       <c r="E5">
-        <v>6.851703700026122</v>
+        <v>7.626867207074615</v>
       </c>
       <c r="F5">
-        <v>57.52073160041532</v>
+        <v>59.56304434711285</v>
       </c>
       <c r="G5">
-        <v>2.130826220585316</v>
+        <v>2.173998644730117</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73410741601132</v>
+        <v>9.326347082050269</v>
       </c>
       <c r="L5">
-        <v>6.760730651099572</v>
+        <v>6.555536554947569</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.75378717998727</v>
+        <v>12.91146126278023</v>
       </c>
       <c r="C6">
-        <v>8.652985472460209</v>
+        <v>5.245404990354953</v>
       </c>
       <c r="D6">
-        <v>9.866249801022974</v>
+        <v>10.81526824092999</v>
       </c>
       <c r="E6">
-        <v>6.847864242501552</v>
+        <v>7.61927382662406</v>
       </c>
       <c r="F6">
-        <v>57.36594740630833</v>
+        <v>59.41858512483989</v>
       </c>
       <c r="G6">
-        <v>2.131436527971341</v>
+        <v>2.174486653811517</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.67982823942449</v>
+        <v>9.306516965804043</v>
       </c>
       <c r="L6">
-        <v>6.752395358912235</v>
+        <v>6.549093717487757</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13492162209099</v>
+        <v>13.12613138307426</v>
       </c>
       <c r="C7">
-        <v>8.855992968195302</v>
+        <v>5.313794164190087</v>
       </c>
       <c r="D7">
-        <v>9.986415059833501</v>
+        <v>10.93396411813949</v>
       </c>
       <c r="E7">
-        <v>6.874711139798144</v>
+        <v>7.672165155720045</v>
       </c>
       <c r="F7">
-        <v>58.43589368180676</v>
+        <v>60.41664805514591</v>
       </c>
       <c r="G7">
-        <v>2.127214642076455</v>
+        <v>2.171113216480998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.0536351465355</v>
+        <v>9.444520444404253</v>
       </c>
       <c r="L7">
-        <v>6.810604740592745</v>
+        <v>6.594135156672873</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78423734927983</v>
+        <v>14.07089787362212</v>
       </c>
       <c r="C8">
-        <v>9.71861652829922</v>
+        <v>5.609024364126837</v>
       </c>
       <c r="D8">
-        <v>10.51144685511544</v>
+        <v>11.44812825897296</v>
       </c>
       <c r="E8">
-        <v>6.998245084726188</v>
+        <v>7.91001949060368</v>
       </c>
       <c r="F8">
-        <v>63.04560475715072</v>
+        <v>64.70239318580717</v>
       </c>
       <c r="G8">
-        <v>2.108903235136537</v>
+        <v>2.156549806651417</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.63175694399691</v>
+        <v>10.17240992550722</v>
       </c>
       <c r="L8">
-        <v>7.076155048268674</v>
+        <v>6.800762885425737</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.27043108627734</v>
+        <v>15.9027015933831</v>
       </c>
       <c r="C9">
-        <v>11.30227900015606</v>
+        <v>6.168328038109225</v>
       </c>
       <c r="D9">
-        <v>11.52391829142175</v>
+        <v>12.42151396673525</v>
       </c>
       <c r="E9">
-        <v>7.26083377017024</v>
+        <v>8.391582819242691</v>
       </c>
       <c r="F9">
-        <v>71.6808414664366</v>
+        <v>72.65962442572125</v>
       </c>
       <c r="G9">
-        <v>2.073749455043492</v>
+        <v>2.128929869191275</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.48774362475453</v>
+        <v>12.00346339225549</v>
       </c>
       <c r="L9">
-        <v>7.628163914877681</v>
+        <v>7.233695204558948</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.71716432937162</v>
+        <v>17.36582835474917</v>
       </c>
       <c r="C10">
-        <v>12.41377737345626</v>
+        <v>6.57185419779966</v>
       </c>
       <c r="D10">
-        <v>12.26127646254933</v>
+        <v>13.11649448626354</v>
       </c>
       <c r="E10">
-        <v>7.468652099854342</v>
+        <v>8.754321133456534</v>
       </c>
       <c r="F10">
-        <v>77.79964477338058</v>
+        <v>78.2298831655396</v>
       </c>
       <c r="G10">
-        <v>2.047936087408587</v>
+        <v>2.108968530123279</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.46119980301601</v>
+        <v>13.25631097091492</v>
       </c>
       <c r="L10">
-        <v>8.054029733851646</v>
+        <v>7.568637568873937</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.80642821764147</v>
+        <v>18.07174020233736</v>
       </c>
       <c r="C11">
-        <v>12.91204353929764</v>
+        <v>6.755074316455886</v>
       </c>
       <c r="D11">
-        <v>12.5967952350044</v>
+        <v>13.42885652250724</v>
       </c>
       <c r="E11">
-        <v>7.567134816715343</v>
+        <v>8.921366261519442</v>
       </c>
       <c r="F11">
-        <v>80.5443493341772</v>
+        <v>80.70666821016749</v>
       </c>
       <c r="G11">
-        <v>2.036073598893368</v>
+        <v>2.099896865813905</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.33754583720181</v>
+        <v>13.80865636987517</v>
       </c>
       <c r="L11">
-        <v>8.252817649477162</v>
+        <v>7.72481476315632</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.21612380341874</v>
+        <v>18.33652366991907</v>
       </c>
       <c r="C12">
-        <v>13.10007258212013</v>
+        <v>6.824530470067851</v>
       </c>
       <c r="D12">
-        <v>12.72403660864262</v>
+        <v>13.54666729633148</v>
       </c>
       <c r="E12">
-        <v>7.605069188352173</v>
+        <v>8.984933355639672</v>
       </c>
       <c r="F12">
-        <v>81.57937032044002</v>
+        <v>81.63677740541698</v>
       </c>
       <c r="G12">
-        <v>2.031551821051814</v>
+        <v>2.096456864400191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.66689816792767</v>
+        <v>14.01552341680231</v>
       </c>
       <c r="L12">
-        <v>8.32890730512718</v>
+        <v>7.784527466350551</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.12800079616138</v>
+        <v>18.27960632091942</v>
       </c>
       <c r="C13">
-        <v>13.05959890403738</v>
+        <v>6.809566322680944</v>
       </c>
       <c r="D13">
-        <v>12.6966212333909</v>
+        <v>13.52131435508624</v>
       </c>
       <c r="E13">
-        <v>7.59686948016348</v>
+        <v>8.971228809581971</v>
       </c>
       <c r="F13">
-        <v>81.35662931620391</v>
+        <v>81.43679982853861</v>
       </c>
       <c r="G13">
-        <v>2.032527212518816</v>
+        <v>2.097198047186784</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.59606716108557</v>
+        <v>13.9710688631567</v>
       </c>
       <c r="L13">
-        <v>8.312482166594053</v>
+        <v>7.771641317940514</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.84018580849518</v>
+        <v>18.0935733738344</v>
       </c>
       <c r="C14">
-        <v>12.92752329049713</v>
+        <v>6.760786234062836</v>
       </c>
       <c r="D14">
-        <v>12.60725851876061</v>
+        <v>13.43855790097058</v>
       </c>
       <c r="E14">
-        <v>7.570242371458426</v>
+        <v>8.926589591294116</v>
       </c>
       <c r="F14">
-        <v>80.62957968535066</v>
+        <v>80.7833420349786</v>
       </c>
       <c r="G14">
-        <v>2.035702264886153</v>
+        <v>2.0996139878083</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.36468829637557</v>
+        <v>13.82571997155223</v>
       </c>
       <c r="L14">
-        <v>8.259060692232966</v>
+        <v>7.729715720999995</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.6635492968229</v>
+        <v>17.97930066920289</v>
       </c>
       <c r="C15">
-        <v>12.84655144594511</v>
+        <v>6.730920784490298</v>
       </c>
       <c r="D15">
-        <v>12.55255175105857</v>
+        <v>13.38780793386438</v>
       </c>
       <c r="E15">
-        <v>7.5540184517756</v>
+        <v>8.899287985660473</v>
       </c>
       <c r="F15">
-        <v>80.18371873091927</v>
+        <v>80.3820806243388</v>
       </c>
       <c r="G15">
-        <v>2.037642796483356</v>
+        <v>2.101093007894912</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.22265525413293</v>
+        <v>13.73639829241061</v>
       </c>
       <c r="L15">
-        <v>8.22644745875755</v>
+        <v>7.704110473123313</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.64555109546868</v>
+        <v>17.319328316101</v>
       </c>
       <c r="C16">
-        <v>12.3810992314631</v>
+        <v>6.559883555648191</v>
       </c>
       <c r="D16">
-        <v>12.23936517674229</v>
+        <v>13.09601022793073</v>
       </c>
       <c r="E16">
-        <v>7.46230136679625</v>
+        <v>8.743446572727562</v>
       </c>
       <c r="F16">
-        <v>77.61958913408283</v>
+        <v>78.0669015465875</v>
       </c>
       <c r="G16">
-        <v>2.048707902453041</v>
+        <v>2.109561066086808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.40354491091026</v>
+        <v>13.21987942365066</v>
       </c>
       <c r="L16">
-        <v>8.041146875749543</v>
+        <v>7.55850945164145</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.01536289956609</v>
+        <v>16.90970185273909</v>
       </c>
       <c r="C17">
-        <v>12.0939383210787</v>
+        <v>6.454951550890486</v>
       </c>
       <c r="D17">
-        <v>12.04736795781687</v>
+        <v>12.91607524326804</v>
       </c>
       <c r="E17">
-        <v>7.407094137467167</v>
+        <v>8.648373331964631</v>
       </c>
       <c r="F17">
-        <v>76.03741596817805</v>
+        <v>76.63222197446915</v>
       </c>
       <c r="G17">
-        <v>2.055457110230719</v>
+        <v>2.114754176817196</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.89594624731011</v>
+        <v>12.89866584573148</v>
       </c>
       <c r="L17">
-        <v>7.928817969107604</v>
+        <v>7.470176982837991</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.65061287241591</v>
+        <v>16.67228112289239</v>
       </c>
       <c r="C18">
-        <v>11.92804980101843</v>
+        <v>6.394556331087575</v>
       </c>
       <c r="D18">
-        <v>11.93693168598622</v>
+        <v>12.81221937323465</v>
       </c>
       <c r="E18">
-        <v>7.375706506835638</v>
+        <v>8.593879414965878</v>
       </c>
       <c r="F18">
-        <v>75.12364827550454</v>
+        <v>75.80161682308106</v>
       </c>
       <c r="G18">
-        <v>2.059328661835316</v>
+        <v>2.117742356240936</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.60193577649015</v>
+        <v>12.7122417650618</v>
       </c>
       <c r="L18">
-        <v>7.864678767298649</v>
+        <v>7.419727007718971</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.52670567589254</v>
+        <v>16.59157711142908</v>
       </c>
       <c r="C19">
-        <v>11.87174785376912</v>
+        <v>6.374097014578245</v>
       </c>
       <c r="D19">
-        <v>11.89953453527838</v>
+        <v>12.77699157173831</v>
       </c>
       <c r="E19">
-        <v>7.365140070885327</v>
+        <v>8.575460914263482</v>
       </c>
       <c r="F19">
-        <v>74.81358744618973</v>
+        <v>75.51944803227974</v>
       </c>
       <c r="G19">
-        <v>2.06063805777734</v>
+        <v>2.118754485781962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.5020203911087</v>
+        <v>12.6488282238239</v>
       </c>
       <c r="L19">
-        <v>7.843040856164543</v>
+        <v>7.402706218817285</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.08267958361285</v>
+        <v>16.95349366089143</v>
       </c>
       <c r="C20">
-        <v>12.1245790440437</v>
+        <v>6.466125158041137</v>
       </c>
       <c r="D20">
-        <v>12.06780574941213</v>
+        <v>12.93526665343323</v>
       </c>
       <c r="E20">
-        <v>7.412932665052149</v>
+        <v>8.658474311037583</v>
       </c>
       <c r="F20">
-        <v>76.20622064298902</v>
+        <v>76.78550402781994</v>
       </c>
       <c r="G20">
-        <v>2.054739806485673</v>
+        <v>2.11420127407897</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.95018964969518</v>
+        <v>12.93303087540864</v>
       </c>
       <c r="L20">
-        <v>7.940726471288381</v>
+        <v>7.479543092728658</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.92479388732114</v>
+        <v>18.14828243490391</v>
       </c>
       <c r="C21">
-        <v>12.96633120535657</v>
+        <v>6.775111008940573</v>
       </c>
       <c r="D21">
-        <v>12.63349977935751</v>
+        <v>13.46287766753443</v>
       </c>
       <c r="E21">
-        <v>7.578045331106455</v>
+        <v>8.939692575632931</v>
       </c>
       <c r="F21">
-        <v>80.84323784185129</v>
+        <v>80.97548574823892</v>
       </c>
       <c r="G21">
-        <v>2.034770592619003</v>
+        <v>2.098904548972537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.43271263404317</v>
+        <v>13.8684727049257</v>
       </c>
       <c r="L21">
-        <v>8.274728967096216</v>
+        <v>7.742014512605899</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.1128900531187</v>
+        <v>18.91453778058195</v>
       </c>
       <c r="C22">
-        <v>13.51290616283994</v>
+        <v>6.977559511819669</v>
       </c>
       <c r="D22">
-        <v>13.00442678236507</v>
+        <v>13.80498852858204</v>
       </c>
       <c r="E22">
-        <v>7.689739570954678</v>
+        <v>9.125313286000097</v>
       </c>
       <c r="F22">
-        <v>83.84936024360086</v>
+        <v>83.66876776309959</v>
       </c>
       <c r="G22">
-        <v>2.021538757883985</v>
+        <v>2.088876067927532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.3873998161715</v>
+        <v>14.46659841555232</v>
       </c>
       <c r="L22">
-        <v>8.497822217668839</v>
+        <v>7.916908413220409</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.47998200795989</v>
+        <v>18.50682400871507</v>
       </c>
       <c r="C23">
-        <v>13.22135840933767</v>
+        <v>6.869415800398233</v>
       </c>
       <c r="D23">
-        <v>12.80627373823371</v>
+        <v>13.62261656950563</v>
       </c>
       <c r="E23">
-        <v>7.629751250869895</v>
+        <v>9.026067585047716</v>
       </c>
       <c r="F23">
-        <v>82.24666299586228</v>
+        <v>82.23525388716493</v>
       </c>
       <c r="G23">
-        <v>2.028622152443103</v>
+        <v>2.094233535137568</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.87894767301422</v>
+        <v>14.14849301137857</v>
       </c>
       <c r="L23">
-        <v>8.37827653974589</v>
+        <v>7.823246017529531</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.05225337656565</v>
+        <v>16.93370138373922</v>
       </c>
       <c r="C24">
-        <v>12.11072888145573</v>
+        <v>6.461073792452781</v>
       </c>
       <c r="D24">
-        <v>12.05856600599262</v>
+        <v>12.92659149541708</v>
       </c>
       <c r="E24">
-        <v>7.410291976422021</v>
+        <v>8.653907145811797</v>
       </c>
       <c r="F24">
-        <v>76.12991708032092</v>
+        <v>76.71622327188236</v>
       </c>
       <c r="G24">
-        <v>2.055064125572299</v>
+        <v>2.114451232893283</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.92567305574534</v>
+        <v>12.91749992642111</v>
       </c>
       <c r="L24">
-        <v>7.935341272336055</v>
+        <v>7.475307637170962</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34482109961274</v>
+        <v>15.41014214051723</v>
       </c>
       <c r="C25">
-        <v>10.88413727657813</v>
+        <v>6.018694315053163</v>
       </c>
       <c r="D25">
-        <v>11.2515465973493</v>
+        <v>12.1618646779019</v>
       </c>
       <c r="E25">
-        <v>7.18738661891163</v>
+        <v>8.259739600693354</v>
       </c>
       <c r="F25">
-        <v>69.38683718248781</v>
+        <v>70.5557895757569</v>
       </c>
       <c r="G25">
-        <v>2.083220669581569</v>
+        <v>2.136324496351662</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.73873413446041</v>
+        <v>11.5251038197662</v>
       </c>
       <c r="L25">
-        <v>7.475410732293199</v>
+        <v>7.113631862543624</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32579081856069</v>
+        <v>13.73065887782339</v>
       </c>
       <c r="C2">
-        <v>5.687541871535383</v>
+        <v>7.354596267771394</v>
       </c>
       <c r="D2">
-        <v>11.58507149001378</v>
+        <v>5.283215894940795</v>
       </c>
       <c r="E2">
-        <v>7.975513243881879</v>
+        <v>7.555137332907274</v>
       </c>
       <c r="F2">
-        <v>65.83384032270104</v>
+        <v>25.3824067352311</v>
       </c>
       <c r="G2">
-        <v>2.15267539594192</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.43667517655088</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.643901928531475</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.9791876599329</v>
       </c>
       <c r="K2">
-        <v>10.43688173961992</v>
+        <v>19.88055966793893</v>
       </c>
       <c r="L2">
-        <v>6.858638598851257</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.58788417129091</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.965683658434349</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.5851492861791</v>
+        <v>12.80927946147975</v>
       </c>
       <c r="C3">
-        <v>5.458220115828103</v>
+        <v>7.059550478769284</v>
       </c>
       <c r="D3">
-        <v>11.18524154963079</v>
+        <v>5.23006150356002</v>
       </c>
       <c r="E3">
-        <v>7.786727954724062</v>
+        <v>7.426823652642134</v>
       </c>
       <c r="F3">
-        <v>62.51868706638355</v>
+        <v>24.84185380248914</v>
       </c>
       <c r="G3">
-        <v>2.163989378958572</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>34.65542931936989</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.872630439530182</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.92983725060608</v>
       </c>
       <c r="K3">
-        <v>9.742404132288209</v>
+        <v>19.77113932830574</v>
       </c>
       <c r="L3">
-        <v>6.692896900255289</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.89586456030369</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.7650661905346</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.12864264467924</v>
+        <v>12.20892576286564</v>
       </c>
       <c r="C4">
-        <v>5.314590654967708</v>
+        <v>6.873701350706826</v>
       </c>
       <c r="D4">
-        <v>10.93534780024246</v>
+        <v>5.196763550565053</v>
       </c>
       <c r="E4">
-        <v>7.672786539266624</v>
+        <v>7.348957604885204</v>
       </c>
       <c r="F4">
-        <v>60.42826334310919</v>
+        <v>24.51379259111057</v>
       </c>
       <c r="G4">
-        <v>2.171073929288055</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>34.17977494074086</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.018525890086187</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.90295642795499</v>
       </c>
       <c r="K4">
-        <v>9.446140022243704</v>
+        <v>19.70799652938631</v>
       </c>
       <c r="L4">
-        <v>6.594666534829974</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.44869379016892</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.643096513930935</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94239358948493</v>
+        <v>11.95334674238624</v>
       </c>
       <c r="C5">
-        <v>5.255297947558936</v>
+        <v>6.801639427783856</v>
       </c>
       <c r="D5">
-        <v>10.83242386970723</v>
+        <v>5.18410056942286</v>
       </c>
       <c r="E5">
-        <v>7.626867207074615</v>
+        <v>7.315260699092444</v>
       </c>
       <c r="F5">
-        <v>59.56304434711285</v>
+        <v>24.36620448810947</v>
       </c>
       <c r="G5">
-        <v>2.173998644730117</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>33.96046093705959</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.08197865636073</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.88791928039265</v>
       </c>
       <c r="K5">
-        <v>9.326347082050269</v>
+        <v>19.67194767709835</v>
       </c>
       <c r="L5">
-        <v>6.555536554947569</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.26236112727493</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.594447884806293</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91146126278023</v>
+        <v>11.90772159157503</v>
       </c>
       <c r="C6">
-        <v>5.245404990354953</v>
+        <v>6.795544334434974</v>
       </c>
       <c r="D6">
-        <v>10.81526824092999</v>
+        <v>5.183309762200195</v>
       </c>
       <c r="E6">
-        <v>7.61927382662406</v>
+        <v>7.306958403627268</v>
       </c>
       <c r="F6">
-        <v>59.41858512483989</v>
+        <v>24.32344165459214</v>
       </c>
       <c r="G6">
-        <v>2.174486653811517</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>33.89152062772255</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.095923727782261</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.87945476361882</v>
       </c>
       <c r="K6">
-        <v>9.306516965804043</v>
+        <v>19.65219721047427</v>
       </c>
       <c r="L6">
-        <v>6.549093717487757</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.23287862314704</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.587230386427134</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12613138307426</v>
+        <v>12.19843004926049</v>
       </c>
       <c r="C7">
-        <v>5.313794164190087</v>
+        <v>6.888770851870062</v>
       </c>
       <c r="D7">
-        <v>10.93396411813949</v>
+        <v>5.200239091584526</v>
       </c>
       <c r="E7">
-        <v>7.672165155720045</v>
+        <v>7.341103005965954</v>
       </c>
       <c r="F7">
-        <v>60.41664805514591</v>
+        <v>24.46211483104535</v>
       </c>
       <c r="G7">
-        <v>2.171113216480998</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>34.08843477646105</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.02820917359213</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.88636083313135</v>
       </c>
       <c r="K7">
-        <v>9.444520444404253</v>
+        <v>19.66984778054471</v>
       </c>
       <c r="L7">
-        <v>6.594135156672873</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.4510041757684</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.644695893599089</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.07089787362212</v>
+        <v>13.41145050309538</v>
       </c>
       <c r="C8">
-        <v>5.609024364126837</v>
+        <v>7.274286142194826</v>
       </c>
       <c r="D8">
-        <v>11.44812825897296</v>
+        <v>5.270018157800277</v>
       </c>
       <c r="E8">
-        <v>7.91001949060368</v>
+        <v>7.501126956188929</v>
       </c>
       <c r="F8">
-        <v>64.70239318580717</v>
+        <v>25.13136243628157</v>
       </c>
       <c r="G8">
-        <v>2.156549806651417</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>35.05290132884853</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.73300305957839</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.94000179142894</v>
       </c>
       <c r="K8">
-        <v>10.17240992550722</v>
+        <v>19.79269705961032</v>
       </c>
       <c r="L8">
-        <v>6.800762885425737</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.35984580248688</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.89916285844726</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9027015933831</v>
+        <v>15.52909951405377</v>
       </c>
       <c r="C9">
-        <v>6.168328038109225</v>
+        <v>7.965489619439611</v>
       </c>
       <c r="D9">
-        <v>12.42151396673525</v>
+        <v>5.394815096983893</v>
       </c>
       <c r="E9">
-        <v>8.391582819242691</v>
+        <v>7.833830999786643</v>
       </c>
       <c r="F9">
-        <v>72.65962442572125</v>
+        <v>26.55487558590937</v>
       </c>
       <c r="G9">
-        <v>2.128929869191275</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>37.12161101465765</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.181832736693059</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.1021924650621</v>
       </c>
       <c r="K9">
-        <v>12.00346339225549</v>
+        <v>20.13317369142094</v>
       </c>
       <c r="L9">
-        <v>7.233695204558948</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.95706225341791</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.401159254097522</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.36582835474917</v>
+        <v>16.91931778809674</v>
       </c>
       <c r="C10">
-        <v>6.57185419779966</v>
+        <v>8.457485289713766</v>
       </c>
       <c r="D10">
-        <v>13.11649448626354</v>
+        <v>5.485414521639658</v>
       </c>
       <c r="E10">
-        <v>8.754321133456534</v>
+        <v>8.076822245928733</v>
       </c>
       <c r="F10">
-        <v>78.2298831655396</v>
+        <v>27.58742496081475</v>
       </c>
       <c r="G10">
-        <v>2.108968530123279</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>38.60835776307218</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.807261042802579</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.23197461161431</v>
       </c>
       <c r="K10">
-        <v>13.25631097091492</v>
+        <v>20.38705877945275</v>
       </c>
       <c r="L10">
-        <v>7.568637568873937</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.02449697428446</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.771652834447794</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.07174020233736</v>
+        <v>17.50871250566444</v>
       </c>
       <c r="C11">
-        <v>6.755074316455886</v>
+        <v>8.69840742439909</v>
       </c>
       <c r="D11">
-        <v>13.42885652250724</v>
+        <v>5.532704110843662</v>
       </c>
       <c r="E11">
-        <v>8.921366261519442</v>
+        <v>8.176607796606138</v>
       </c>
       <c r="F11">
-        <v>80.70666821016749</v>
+        <v>27.98797412827439</v>
       </c>
       <c r="G11">
-        <v>2.099896865813905</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>39.1606936655829</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.659997171512013</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.27008716539071</v>
       </c>
       <c r="K11">
-        <v>13.80865636987517</v>
+        <v>20.44980291109407</v>
       </c>
       <c r="L11">
-        <v>7.72481476315632</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.49264952944904</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.942708438856562</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.33652366991907</v>
+        <v>17.73165684949964</v>
       </c>
       <c r="C12">
-        <v>6.824530470067851</v>
+        <v>8.776935016053628</v>
       </c>
       <c r="D12">
-        <v>13.54666729633148</v>
+        <v>5.546988761937441</v>
       </c>
       <c r="E12">
-        <v>8.984933355639672</v>
+        <v>8.220253586408473</v>
       </c>
       <c r="F12">
-        <v>81.63677740541698</v>
+        <v>28.1777819303718</v>
       </c>
       <c r="G12">
-        <v>2.096456864400191</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>39.43725044487499</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.596252086466727</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.29870089478326</v>
       </c>
       <c r="K12">
-        <v>14.01552341680231</v>
+        <v>20.50536290698189</v>
       </c>
       <c r="L12">
-        <v>7.784527466350551</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.66337916793961</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.005730262658449</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27960632091942</v>
+        <v>17.68477262277429</v>
       </c>
       <c r="C13">
-        <v>6.809566322680944</v>
+        <v>8.757679055746639</v>
       </c>
       <c r="D13">
-        <v>13.52131435508624</v>
+        <v>5.543198440235894</v>
       </c>
       <c r="E13">
-        <v>8.971228809581971</v>
+        <v>8.212020365252139</v>
       </c>
       <c r="F13">
-        <v>81.43679982853861</v>
+        <v>28.14443219419601</v>
       </c>
       <c r="G13">
-        <v>2.097198047186784</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>39.39103030243233</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.60801550742717</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.29521235366016</v>
       </c>
       <c r="K13">
-        <v>13.9710688631567</v>
+        <v>20.49955687984531</v>
       </c>
       <c r="L13">
-        <v>7.771641317940514</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.62612645013287</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.991840946191292</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0935733738344</v>
+        <v>17.52754319835796</v>
       </c>
       <c r="C14">
-        <v>6.760786234062836</v>
+        <v>8.703867323304454</v>
       </c>
       <c r="D14">
-        <v>13.43855790097058</v>
+        <v>5.533576398288856</v>
       </c>
       <c r="E14">
-        <v>8.926589591294116</v>
+        <v>8.18069586230672</v>
       </c>
       <c r="F14">
-        <v>80.7833420349786</v>
+        <v>28.00680283336693</v>
       </c>
       <c r="G14">
-        <v>2.0996139878083</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>39.18914104438405</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.653917882454928</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.27357863773007</v>
       </c>
       <c r="K14">
-        <v>13.82571997155223</v>
+        <v>20.45699498898351</v>
       </c>
       <c r="L14">
-        <v>7.729715720999995</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.50649208722365</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.947758073316022</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.97930066920289</v>
+        <v>17.42877312912252</v>
       </c>
       <c r="C15">
-        <v>6.730920784490298</v>
+        <v>8.67554735847899</v>
       </c>
       <c r="D15">
-        <v>13.38780793386438</v>
+        <v>5.529083452825475</v>
       </c>
       <c r="E15">
-        <v>8.899287985660473</v>
+        <v>8.159195522879777</v>
       </c>
       <c r="F15">
-        <v>80.3820806243388</v>
+        <v>27.9075414785827</v>
       </c>
       <c r="G15">
-        <v>2.101093007894912</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>39.03895391887373</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.685971761849051</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.25506998195958</v>
       </c>
       <c r="K15">
-        <v>13.73639829241061</v>
+        <v>20.41878188496394</v>
       </c>
       <c r="L15">
-        <v>7.704110473123313</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.43404153324905</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.921382360952524</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.319328316101</v>
+        <v>16.86440455802044</v>
       </c>
       <c r="C16">
-        <v>6.559883555648191</v>
+        <v>8.481991229626576</v>
       </c>
       <c r="D16">
-        <v>13.09601022793073</v>
+        <v>5.494108276329198</v>
       </c>
       <c r="E16">
-        <v>8.743446572727562</v>
+        <v>8.05063943036917</v>
       </c>
       <c r="F16">
-        <v>78.0669015465875</v>
+        <v>27.43353040288687</v>
       </c>
       <c r="G16">
-        <v>2.109561066086808</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>38.34585861956043</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.846971954158247</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.18429352814473</v>
       </c>
       <c r="K16">
-        <v>13.21987942365066</v>
+        <v>20.27924289645636</v>
       </c>
       <c r="L16">
-        <v>7.55850945164145</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.00429118804085</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.765968057234398</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.90970185273909</v>
+        <v>16.50935089976315</v>
       </c>
       <c r="C17">
-        <v>6.454951550890486</v>
+        <v>8.361974810372018</v>
       </c>
       <c r="D17">
-        <v>12.91607524326804</v>
+        <v>5.472428092487667</v>
       </c>
       <c r="E17">
-        <v>8.648373331964631</v>
+        <v>7.984097770634374</v>
       </c>
       <c r="F17">
-        <v>76.63222197446915</v>
+        <v>27.14309578278902</v>
       </c>
       <c r="G17">
-        <v>2.114754176817196</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>37.92092164577242</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.947167382030221</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.14214373460447</v>
       </c>
       <c r="K17">
-        <v>12.89866584573148</v>
+        <v>20.19530066684114</v>
       </c>
       <c r="L17">
-        <v>7.470176982837991</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.73472067492969</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.670469051531291</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.67228112289239</v>
+        <v>16.30676005181801</v>
       </c>
       <c r="C18">
-        <v>6.394556331087575</v>
+        <v>8.279943122121747</v>
       </c>
       <c r="D18">
-        <v>12.81221937323465</v>
+        <v>5.456297160107614</v>
       </c>
       <c r="E18">
-        <v>8.593879414965878</v>
+        <v>7.951878499572632</v>
       </c>
       <c r="F18">
-        <v>75.80161682308106</v>
+        <v>27.01552416357855</v>
       </c>
       <c r="G18">
-        <v>2.117742356240936</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>37.74636522234114</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.995616649324926</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.13214845993522</v>
       </c>
       <c r="K18">
-        <v>12.7122417650618</v>
+        <v>20.17923332480132</v>
       </c>
       <c r="L18">
-        <v>7.419727007718971</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.5740948941482</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.613790416248402</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59157711142908</v>
+        <v>16.23383918120937</v>
       </c>
       <c r="C19">
-        <v>6.374097014578245</v>
+        <v>8.261729438305322</v>
       </c>
       <c r="D19">
-        <v>12.77699157173831</v>
+        <v>5.453579980251552</v>
       </c>
       <c r="E19">
-        <v>8.575460914263482</v>
+        <v>7.936332474725312</v>
       </c>
       <c r="F19">
-        <v>75.51944803227974</v>
+        <v>26.94207577789077</v>
       </c>
       <c r="G19">
-        <v>2.118754485781962</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>37.63358645476579</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.019531584361284</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.11821059915736</v>
       </c>
       <c r="K19">
-        <v>12.6488282238239</v>
+        <v>20.14952137442499</v>
       </c>
       <c r="L19">
-        <v>7.402706218817285</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.52194181670017</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.595908400737636</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.95349366089143</v>
+        <v>16.54786387141857</v>
       </c>
       <c r="C20">
-        <v>6.466125158041137</v>
+        <v>8.373823280651134</v>
       </c>
       <c r="D20">
-        <v>12.93526665343323</v>
+        <v>5.474462608247274</v>
       </c>
       <c r="E20">
-        <v>8.658474311037583</v>
+        <v>7.991649033755686</v>
       </c>
       <c r="F20">
-        <v>76.78550402781994</v>
+        <v>27.1770620047407</v>
       </c>
       <c r="G20">
-        <v>2.11420127407897</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>37.97157788403101</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.935670065095841</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.14766217739358</v>
       </c>
       <c r="K20">
-        <v>12.93303087540864</v>
+        <v>20.20664762171164</v>
       </c>
       <c r="L20">
-        <v>7.479543092728658</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.76338010670609</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.680507114415973</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.14828243490391</v>
+        <v>17.56871996623647</v>
       </c>
       <c r="C21">
-        <v>6.775111008940573</v>
+        <v>8.733065782133966</v>
       </c>
       <c r="D21">
-        <v>13.46287766753443</v>
+        <v>5.540439201278617</v>
       </c>
       <c r="E21">
-        <v>8.939692575632931</v>
+        <v>8.18334781206204</v>
       </c>
       <c r="F21">
-        <v>80.97548574823892</v>
+        <v>28.00490389964764</v>
       </c>
       <c r="G21">
-        <v>2.098904548972537</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>39.17348009205781</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.651483680358087</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.26474465220821</v>
       </c>
       <c r="K21">
-        <v>13.8684727049257</v>
+        <v>20.43471351218465</v>
       </c>
       <c r="L21">
-        <v>7.742014512605899</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.54527242841979</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.962522327516318</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.91453778058195</v>
+        <v>18.21376178248575</v>
       </c>
       <c r="C22">
-        <v>6.977559511819669</v>
+        <v>8.94675646127542</v>
       </c>
       <c r="D22">
-        <v>13.80498852858204</v>
+        <v>5.577700577643144</v>
       </c>
       <c r="E22">
-        <v>9.125313286000097</v>
+        <v>8.317015436196904</v>
       </c>
       <c r="F22">
-        <v>83.66876776309959</v>
+        <v>28.60042178171652</v>
       </c>
       <c r="G22">
-        <v>2.088876067927532</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>40.05440755278275</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.545182446667118</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.36476388212301</v>
       </c>
       <c r="K22">
-        <v>14.46659841555232</v>
+        <v>20.63341576492224</v>
       </c>
       <c r="L22">
-        <v>7.916908413220409</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.03245568544903</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.143853734551204</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.50682400871507</v>
+        <v>17.87823334205573</v>
       </c>
       <c r="C23">
-        <v>6.869415800398233</v>
+        <v>8.8170918506788</v>
       </c>
       <c r="D23">
-        <v>13.62261656950563</v>
+        <v>5.553023274043822</v>
       </c>
       <c r="E23">
-        <v>9.026067585047716</v>
+        <v>8.253537994191722</v>
       </c>
       <c r="F23">
-        <v>82.23525388716493</v>
+        <v>28.33326676862972</v>
       </c>
       <c r="G23">
-        <v>2.094233535137568</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>39.67408090632622</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.546945682822046</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.32923207715135</v>
       </c>
       <c r="K23">
-        <v>14.14849301137857</v>
+        <v>20.56866082457597</v>
       </c>
       <c r="L23">
-        <v>7.823246017529531</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.76995924438611</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.044981790673416</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.93370138373922</v>
+        <v>16.54070335774641</v>
       </c>
       <c r="C24">
-        <v>6.461073792452781</v>
+        <v>8.342224170676902</v>
       </c>
       <c r="D24">
-        <v>12.92659149541708</v>
+        <v>5.465982403206775</v>
       </c>
       <c r="E24">
-        <v>8.653907145811797</v>
+        <v>8.000929545815309</v>
       </c>
       <c r="F24">
-        <v>76.71622327188236</v>
+        <v>27.24440159117159</v>
       </c>
       <c r="G24">
-        <v>2.114451232893283</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>38.09529780523845</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.921056949869404</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.1742916885162</v>
       </c>
       <c r="K24">
-        <v>12.91749992642111</v>
+        <v>20.26829636040332</v>
       </c>
       <c r="L24">
-        <v>7.475307637170962</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.74334147667463</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.672388258004342</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.41014214051723</v>
+        <v>14.97431204100374</v>
       </c>
       <c r="C25">
-        <v>6.018694315053163</v>
+        <v>7.80913232807391</v>
       </c>
       <c r="D25">
-        <v>12.1618646779019</v>
+        <v>5.368724814269613</v>
       </c>
       <c r="E25">
-        <v>8.259739600693354</v>
+        <v>7.730653521629296</v>
       </c>
       <c r="F25">
-        <v>70.5557895757569</v>
+        <v>26.08406060218242</v>
       </c>
       <c r="G25">
-        <v>2.136324496351662</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.41165261913793</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.343117151492101</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.02638070637844</v>
       </c>
       <c r="K25">
-        <v>11.5251038197662</v>
+        <v>19.97126963010823</v>
       </c>
       <c r="L25">
-        <v>7.113631862543624</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.55138624971926</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.268680359110194</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73065887782339</v>
+        <v>13.64472178512221</v>
       </c>
       <c r="C2">
-        <v>7.354596267771394</v>
+        <v>7.483570622248313</v>
       </c>
       <c r="D2">
-        <v>5.283215894940795</v>
+        <v>5.29585752278855</v>
       </c>
       <c r="E2">
-        <v>7.555137332907274</v>
+        <v>7.191804621297297</v>
       </c>
       <c r="F2">
-        <v>25.3824067352311</v>
+        <v>23.53676761867805</v>
       </c>
       <c r="G2">
-        <v>35.43667517655088</v>
+        <v>31.89667252402746</v>
       </c>
       <c r="I2">
-        <v>3.643901928531475</v>
+        <v>3.421033004033068</v>
       </c>
       <c r="J2">
-        <v>11.9791876599329</v>
+        <v>11.47607037654444</v>
       </c>
       <c r="K2">
-        <v>19.88055966793893</v>
+        <v>18.23573275407012</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.6040485212604</v>
       </c>
       <c r="M2">
-        <v>11.58788417129091</v>
+        <v>12.43283262135294</v>
       </c>
       <c r="N2">
-        <v>6.965683658434349</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.79291626519943</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.056778379256061</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.80927946147975</v>
+        <v>12.75650325744117</v>
       </c>
       <c r="C3">
-        <v>7.059550478769284</v>
+        <v>7.084955126422063</v>
       </c>
       <c r="D3">
-        <v>5.23006150356002</v>
+        <v>5.201179066442874</v>
       </c>
       <c r="E3">
-        <v>7.426823652642134</v>
+        <v>7.085059471818232</v>
       </c>
       <c r="F3">
-        <v>24.84185380248914</v>
+        <v>23.15473845854549</v>
       </c>
       <c r="G3">
-        <v>34.65542931936989</v>
+        <v>31.46064299837807</v>
       </c>
       <c r="I3">
-        <v>3.872630439530182</v>
+        <v>3.617781555481665</v>
       </c>
       <c r="J3">
-        <v>11.92983725060608</v>
+        <v>11.43036594661666</v>
       </c>
       <c r="K3">
-        <v>19.77113932830574</v>
+        <v>18.2447739566485</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.68756372891344</v>
       </c>
       <c r="M3">
-        <v>10.89586456030369</v>
+        <v>12.3812360068914</v>
       </c>
       <c r="N3">
-        <v>6.7650661905346</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.09221817139409</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.847876112224068</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20892576286564</v>
+        <v>12.17766950855998</v>
       </c>
       <c r="C4">
-        <v>6.873701350706826</v>
+        <v>6.832532643378516</v>
       </c>
       <c r="D4">
-        <v>5.196763550565053</v>
+        <v>5.142307984273829</v>
       </c>
       <c r="E4">
-        <v>7.348957604885204</v>
+        <v>7.020283527424177</v>
       </c>
       <c r="F4">
-        <v>24.51379259111057</v>
+        <v>22.92411364896989</v>
       </c>
       <c r="G4">
-        <v>34.17977494074086</v>
+        <v>31.20351971948441</v>
       </c>
       <c r="I4">
-        <v>4.018525890086187</v>
+        <v>3.743674188645185</v>
       </c>
       <c r="J4">
-        <v>11.90295642795499</v>
+        <v>11.40283916840152</v>
       </c>
       <c r="K4">
-        <v>19.70799652938631</v>
+        <v>18.25308695846328</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.73617748765012</v>
       </c>
       <c r="M4">
-        <v>10.44869379016892</v>
+        <v>12.3693278070816</v>
       </c>
       <c r="N4">
-        <v>6.643096513930935</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.63944581086478</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.720535189407273</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95334674238624</v>
+        <v>11.93133645405688</v>
       </c>
       <c r="C5">
-        <v>6.801639427783856</v>
+        <v>6.733506961182946</v>
       </c>
       <c r="D5">
-        <v>5.18410056942286</v>
+        <v>5.119476610989147</v>
       </c>
       <c r="E5">
-        <v>7.315260699092444</v>
+        <v>6.992089815422922</v>
       </c>
       <c r="F5">
-        <v>24.36620448810947</v>
+        <v>22.81758187579475</v>
       </c>
       <c r="G5">
-        <v>33.96046093705959</v>
+        <v>31.07740357910505</v>
       </c>
       <c r="I5">
-        <v>4.08197865636073</v>
+        <v>3.799277992556223</v>
       </c>
       <c r="J5">
-        <v>11.88791928039265</v>
+        <v>11.38728867183659</v>
       </c>
       <c r="K5">
-        <v>19.67194767709835</v>
+        <v>18.2472989088861</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.74662526396681</v>
       </c>
       <c r="M5">
-        <v>10.26236112727493</v>
+        <v>12.36323788528815</v>
       </c>
       <c r="N5">
-        <v>6.594447884806293</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.45067782774756</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.66957727174631</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.90772159157503</v>
+        <v>11.88747081672448</v>
       </c>
       <c r="C6">
-        <v>6.795544334434974</v>
+        <v>6.723960717474537</v>
       </c>
       <c r="D6">
-        <v>5.183309762200195</v>
+        <v>5.117316832437115</v>
       </c>
       <c r="E6">
-        <v>7.306958403627268</v>
+        <v>6.984962141284595</v>
       </c>
       <c r="F6">
-        <v>24.32344165459214</v>
+        <v>22.7833565052399</v>
       </c>
       <c r="G6">
-        <v>33.89152062772255</v>
+        <v>31.02734518045605</v>
       </c>
       <c r="I6">
-        <v>4.095923727782261</v>
+        <v>3.812444846312599</v>
       </c>
       <c r="J6">
-        <v>11.87945476361882</v>
+        <v>11.37925840575083</v>
       </c>
       <c r="K6">
-        <v>19.65219721047427</v>
+        <v>18.23436429318453</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.73771462836984</v>
       </c>
       <c r="M6">
-        <v>10.23287862314704</v>
+        <v>12.35496678526959</v>
       </c>
       <c r="N6">
-        <v>6.587230386427134</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.42066452601709</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.661902535173915</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.19843004926049</v>
+        <v>12.16926372118552</v>
       </c>
       <c r="C7">
-        <v>6.888770851870062</v>
+        <v>6.843869896068551</v>
       </c>
       <c r="D7">
-        <v>5.200239091584526</v>
+        <v>5.149344295541786</v>
       </c>
       <c r="E7">
-        <v>7.341103005965954</v>
+        <v>7.014888167576131</v>
       </c>
       <c r="F7">
-        <v>24.46211483104535</v>
+        <v>22.85098468082993</v>
       </c>
       <c r="G7">
-        <v>34.08843477646105</v>
+        <v>31.17810940123814</v>
       </c>
       <c r="I7">
-        <v>4.02820917359213</v>
+        <v>3.755378475373524</v>
       </c>
       <c r="J7">
-        <v>11.88636083313135</v>
+        <v>11.34175109723268</v>
       </c>
       <c r="K7">
-        <v>19.66984778054471</v>
+        <v>18.20531089715621</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.69492642540489</v>
       </c>
       <c r="M7">
-        <v>10.4510041757684</v>
+        <v>12.33838923342907</v>
       </c>
       <c r="N7">
-        <v>6.644695893599089</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.63942341307788</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.721402303034592</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.41145050309538</v>
+        <v>13.34173396061367</v>
       </c>
       <c r="C8">
-        <v>7.274286142194826</v>
+        <v>7.352064051715853</v>
       </c>
       <c r="D8">
-        <v>5.270018157800277</v>
+        <v>5.279176009735847</v>
       </c>
       <c r="E8">
-        <v>7.501126956188929</v>
+        <v>7.151699108510925</v>
       </c>
       <c r="F8">
-        <v>25.13136243628157</v>
+        <v>23.26014821416814</v>
       </c>
       <c r="G8">
-        <v>35.05290132884853</v>
+        <v>31.82498215227544</v>
       </c>
       <c r="I8">
-        <v>3.73300305957839</v>
+        <v>3.503235005002012</v>
       </c>
       <c r="J8">
-        <v>11.94000179142894</v>
+        <v>11.2908324172042</v>
       </c>
       <c r="K8">
-        <v>19.79269705961032</v>
+        <v>18.1466928787107</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.55814371028558</v>
       </c>
       <c r="M8">
-        <v>11.35984580248688</v>
+        <v>12.34689534095014</v>
       </c>
       <c r="N8">
-        <v>6.89916285844726</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.55550216893862</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.985535995717483</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.52909951405377</v>
+        <v>15.38227537971195</v>
       </c>
       <c r="C9">
-        <v>7.965489619439611</v>
+        <v>8.277366104315403</v>
       </c>
       <c r="D9">
-        <v>5.394815096983893</v>
+        <v>5.50859978279717</v>
       </c>
       <c r="E9">
-        <v>7.833830999786643</v>
+        <v>7.430582085719563</v>
       </c>
       <c r="F9">
-        <v>26.55487558590937</v>
+        <v>24.26827775364992</v>
       </c>
       <c r="G9">
-        <v>37.12161101465765</v>
+        <v>33.11069595535081</v>
       </c>
       <c r="I9">
-        <v>3.181832736693059</v>
+        <v>3.028954443646672</v>
       </c>
       <c r="J9">
-        <v>12.1021924650621</v>
+        <v>11.38688564902592</v>
       </c>
       <c r="K9">
-        <v>20.13317369142094</v>
+        <v>18.16734138827171</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.36244863202265</v>
       </c>
       <c r="M9">
-        <v>12.95706225341791</v>
+        <v>12.59776679091043</v>
       </c>
       <c r="N9">
-        <v>7.401159254097522</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.17180049446527</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.506112815282521</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91931778809674</v>
+        <v>16.72663948771309</v>
       </c>
       <c r="C10">
-        <v>8.457485289713766</v>
+        <v>8.896356349891674</v>
       </c>
       <c r="D10">
-        <v>5.485414521639658</v>
+        <v>5.692950530990577</v>
       </c>
       <c r="E10">
-        <v>8.076822245928733</v>
+        <v>7.643589558337858</v>
       </c>
       <c r="F10">
-        <v>27.58742496081475</v>
+        <v>24.86633582907825</v>
       </c>
       <c r="G10">
-        <v>38.60835776307218</v>
+        <v>34.38033976187134</v>
       </c>
       <c r="I10">
-        <v>2.807261042802579</v>
+        <v>2.713980435671727</v>
       </c>
       <c r="J10">
-        <v>12.23197461161431</v>
+        <v>11.20247622634687</v>
       </c>
       <c r="K10">
-        <v>20.38705877945275</v>
+        <v>18.10161999189774</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.13516497320648</v>
       </c>
       <c r="M10">
-        <v>14.02449697428446</v>
+        <v>12.79920895188098</v>
       </c>
       <c r="N10">
-        <v>7.771652834447794</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.24185483365388</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.885352860211755</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.50871250566444</v>
+        <v>17.30719374782574</v>
       </c>
       <c r="C11">
-        <v>8.69840742439909</v>
+        <v>9.14407938210007</v>
       </c>
       <c r="D11">
-        <v>5.532704110843662</v>
+        <v>5.816231665973682</v>
       </c>
       <c r="E11">
-        <v>8.176607796606138</v>
+        <v>7.74739844170889</v>
       </c>
       <c r="F11">
-        <v>27.98797412827439</v>
+        <v>24.83756139229977</v>
       </c>
       <c r="G11">
-        <v>39.1606936655829</v>
+        <v>35.39680868338728</v>
       </c>
       <c r="I11">
-        <v>2.659997171512013</v>
+        <v>2.601878756571028</v>
       </c>
       <c r="J11">
-        <v>12.27008716539071</v>
+        <v>10.67892926551888</v>
       </c>
       <c r="K11">
-        <v>20.44980291109407</v>
+        <v>17.88258330448073</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.89404148183299</v>
       </c>
       <c r="M11">
-        <v>14.49264952944904</v>
+        <v>12.75312550792941</v>
       </c>
       <c r="N11">
-        <v>7.942708438856562</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.69549294190939</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.05464538653383</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.73165684949964</v>
+        <v>17.52773228495111</v>
       </c>
       <c r="C12">
-        <v>8.776935016053628</v>
+        <v>9.217522813641567</v>
       </c>
       <c r="D12">
-        <v>5.546988761937441</v>
+        <v>5.862769687090164</v>
       </c>
       <c r="E12">
-        <v>8.220253586408473</v>
+        <v>7.794130177935337</v>
       </c>
       <c r="F12">
-        <v>28.1777819303718</v>
+        <v>24.83226037368809</v>
       </c>
       <c r="G12">
-        <v>39.43725044487499</v>
+        <v>35.91327286022009</v>
       </c>
       <c r="I12">
-        <v>2.596252086466727</v>
+        <v>2.550464856233954</v>
       </c>
       <c r="J12">
-        <v>12.29870089478326</v>
+        <v>10.44856447416057</v>
       </c>
       <c r="K12">
-        <v>20.50536290698189</v>
+        <v>17.80865316880919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.80992996785956</v>
       </c>
       <c r="M12">
-        <v>14.66337916793961</v>
+        <v>12.74407380419266</v>
       </c>
       <c r="N12">
-        <v>8.005730262658449</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.85920755327385</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.116437557947279</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.68477262277429</v>
+        <v>17.48123015308689</v>
       </c>
       <c r="C13">
-        <v>8.757679055746639</v>
+        <v>9.199341206356452</v>
       </c>
       <c r="D13">
-        <v>5.543198440235894</v>
+        <v>5.851642886121643</v>
       </c>
       <c r="E13">
-        <v>8.212020365252139</v>
+        <v>7.785018047935122</v>
       </c>
       <c r="F13">
-        <v>28.14443219419601</v>
+        <v>24.84145691255518</v>
       </c>
       <c r="G13">
-        <v>39.39103030243233</v>
+        <v>35.81107533153524</v>
       </c>
       <c r="I13">
-        <v>2.60801550742717</v>
+        <v>2.559241453167024</v>
       </c>
       <c r="J13">
-        <v>12.29521235366016</v>
+        <v>10.50196087787959</v>
       </c>
       <c r="K13">
-        <v>20.49955687984531</v>
+        <v>17.83056378572664</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.83224087233946</v>
       </c>
       <c r="M13">
-        <v>14.62612645013287</v>
+        <v>12.75081802034183</v>
       </c>
       <c r="N13">
-        <v>7.991840946191292</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.82357483723316</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.102872443105976</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.52754319835796</v>
+        <v>17.32576711552522</v>
       </c>
       <c r="C14">
-        <v>8.703867323304454</v>
+        <v>9.149115845314931</v>
       </c>
       <c r="D14">
-        <v>5.533576398288856</v>
+        <v>5.819589800005621</v>
       </c>
       <c r="E14">
-        <v>8.18069586230672</v>
+        <v>7.751646717273027</v>
       </c>
       <c r="F14">
-        <v>28.00680283336693</v>
+        <v>24.84059456416147</v>
       </c>
       <c r="G14">
-        <v>39.18914104438405</v>
+        <v>35.44307782524739</v>
       </c>
       <c r="I14">
-        <v>2.653917882454928</v>
+        <v>2.596670848307765</v>
       </c>
       <c r="J14">
-        <v>12.27357863773007</v>
+        <v>10.66167140514647</v>
       </c>
       <c r="K14">
-        <v>20.45699498898351</v>
+        <v>17.87907422295798</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.88893343246684</v>
       </c>
       <c r="M14">
-        <v>14.50649208722365</v>
+        <v>12.754433037507</v>
       </c>
       <c r="N14">
-        <v>7.947758073316022</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.70880704261719</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.059619919093352</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.42877312912252</v>
+        <v>17.22840450743259</v>
       </c>
       <c r="C15">
-        <v>8.67554735847899</v>
+        <v>9.122806746995721</v>
       </c>
       <c r="D15">
-        <v>5.529083452825475</v>
+        <v>5.802286497256824</v>
       </c>
       <c r="E15">
-        <v>8.159195522879777</v>
+        <v>7.729409497654506</v>
       </c>
       <c r="F15">
-        <v>27.9075414785827</v>
+        <v>24.82284115751878</v>
       </c>
       <c r="G15">
-        <v>39.03895391887373</v>
+        <v>35.20269704530183</v>
       </c>
       <c r="I15">
-        <v>2.685971761849051</v>
+        <v>2.624231676396773</v>
       </c>
       <c r="J15">
-        <v>12.25506998195958</v>
+        <v>10.74995246825772</v>
       </c>
       <c r="K15">
-        <v>20.41878188496394</v>
+        <v>17.89616842613223</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.91475435030319</v>
       </c>
       <c r="M15">
-        <v>14.43404153324905</v>
+        <v>12.74665183730269</v>
       </c>
       <c r="N15">
-        <v>7.921382360952524</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.63904753502798</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.033605342390693</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.86440455802044</v>
+        <v>16.67378310560862</v>
       </c>
       <c r="C16">
-        <v>8.481991229626576</v>
+        <v>8.924995486138473</v>
       </c>
       <c r="D16">
-        <v>5.494108276329198</v>
+        <v>5.699998422938133</v>
       </c>
       <c r="E16">
-        <v>8.05063943036917</v>
+        <v>7.619414950070537</v>
       </c>
       <c r="F16">
-        <v>27.43353040288687</v>
+        <v>24.74915950745863</v>
       </c>
       <c r="G16">
-        <v>38.34585861956043</v>
+        <v>34.11734626110228</v>
       </c>
       <c r="I16">
-        <v>2.846971954158247</v>
+        <v>2.756487906733862</v>
       </c>
       <c r="J16">
-        <v>12.18429352814473</v>
+        <v>11.19266181102237</v>
       </c>
       <c r="K16">
-        <v>20.27924289645636</v>
+        <v>18.02532052427207</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.08534673158793</v>
       </c>
       <c r="M16">
-        <v>14.00429118804085</v>
+        <v>12.73032505016302</v>
       </c>
       <c r="N16">
-        <v>7.765968057234398</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.22173150911886</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.879217379723198</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50935089976315</v>
+        <v>16.32705533458902</v>
       </c>
       <c r="C17">
-        <v>8.361974810372018</v>
+        <v>8.791316750526089</v>
       </c>
       <c r="D17">
-        <v>5.472428092487667</v>
+        <v>5.644068836234441</v>
       </c>
       <c r="E17">
-        <v>7.984097770634374</v>
+        <v>7.555602177638892</v>
       </c>
       <c r="F17">
-        <v>27.14309578278902</v>
+        <v>24.65408736681244</v>
       </c>
       <c r="G17">
-        <v>37.92092164577242</v>
+        <v>33.57162080620114</v>
       </c>
       <c r="I17">
-        <v>2.947167382030221</v>
+        <v>2.840051505814428</v>
       </c>
       <c r="J17">
-        <v>12.14214373460447</v>
+        <v>11.37936540327362</v>
       </c>
       <c r="K17">
-        <v>20.19530066684114</v>
+        <v>18.07492311792128</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.16870213501256</v>
       </c>
       <c r="M17">
-        <v>13.73472067492969</v>
+        <v>12.69969209403245</v>
       </c>
       <c r="N17">
-        <v>7.670469051531291</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.95665689293176</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.783144706835275</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.30676005181801</v>
+        <v>16.12971531763598</v>
       </c>
       <c r="C18">
-        <v>8.279943122121747</v>
+        <v>8.695546525684071</v>
       </c>
       <c r="D18">
-        <v>5.456297160107614</v>
+        <v>5.609890154476598</v>
       </c>
       <c r="E18">
-        <v>7.951878499572632</v>
+        <v>7.525601834078423</v>
       </c>
       <c r="F18">
-        <v>27.01552416357855</v>
+        <v>24.61695872374717</v>
       </c>
       <c r="G18">
-        <v>37.74636522234114</v>
+        <v>33.36339187912031</v>
       </c>
       <c r="I18">
-        <v>2.995616649324926</v>
+        <v>2.877606497931779</v>
       </c>
       <c r="J18">
-        <v>12.13214845993522</v>
+        <v>11.46629115959755</v>
       </c>
       <c r="K18">
-        <v>20.17923332480132</v>
+        <v>18.11993366213198</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.22872254138733</v>
       </c>
       <c r="M18">
-        <v>13.5740948941482</v>
+        <v>12.69620636611462</v>
       </c>
       <c r="N18">
-        <v>7.613790416248402</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.79764402774569</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.725854638053688</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.23383918120937</v>
+        <v>16.0590278125002</v>
       </c>
       <c r="C19">
-        <v>8.261729438305322</v>
+        <v>8.67332049004688</v>
       </c>
       <c r="D19">
-        <v>5.453579980251552</v>
+        <v>5.602056360565317</v>
       </c>
       <c r="E19">
-        <v>7.936332474725312</v>
+        <v>7.51148921355595</v>
       </c>
       <c r="F19">
-        <v>26.94207577789077</v>
+        <v>24.57401676612812</v>
       </c>
       <c r="G19">
-        <v>37.63358645476579</v>
+        <v>33.25131844961818</v>
       </c>
       <c r="I19">
-        <v>3.019531584361284</v>
+        <v>2.899215104919326</v>
       </c>
       <c r="J19">
-        <v>12.11821059915736</v>
+        <v>11.48097838564476</v>
       </c>
       <c r="K19">
-        <v>20.14952137442499</v>
+        <v>18.1125797123488</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.23235495474443</v>
       </c>
       <c r="M19">
-        <v>13.52194181670017</v>
+        <v>12.67751531611033</v>
       </c>
       <c r="N19">
-        <v>7.595908400737636</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.74568195393691</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.707581889757434</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.54786387141857</v>
+        <v>16.36456179988794</v>
       </c>
       <c r="C20">
-        <v>8.373823280651134</v>
+        <v>8.804911808500364</v>
       </c>
       <c r="D20">
-        <v>5.474462608247274</v>
+        <v>5.649433688707455</v>
       </c>
       <c r="E20">
-        <v>7.991649033755686</v>
+        <v>7.5626832541082</v>
       </c>
       <c r="F20">
-        <v>27.1770620047407</v>
+        <v>24.6688383054569</v>
       </c>
       <c r="G20">
-        <v>37.97157788403101</v>
+        <v>33.63021448713837</v>
       </c>
       <c r="I20">
-        <v>2.935670065095841</v>
+        <v>2.830146260962887</v>
       </c>
       <c r="J20">
-        <v>12.14766217739358</v>
+        <v>11.36374513795446</v>
       </c>
       <c r="K20">
-        <v>20.20664762171164</v>
+        <v>18.07285071972651</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.16218580677251</v>
       </c>
       <c r="M20">
-        <v>13.76338010670609</v>
+        <v>12.70536056060026</v>
       </c>
       <c r="N20">
-        <v>7.680507114415973</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.98497392604881</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.793299687462237</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.56871996623647</v>
+        <v>17.37065632262834</v>
       </c>
       <c r="C21">
-        <v>8.733065782133966</v>
+        <v>9.161209040925666</v>
       </c>
       <c r="D21">
-        <v>5.540439201278617</v>
+        <v>5.845456772730775</v>
       </c>
       <c r="E21">
-        <v>8.18334781206204</v>
+        <v>7.761403822853019</v>
       </c>
       <c r="F21">
-        <v>28.00490389964764</v>
+        <v>24.71744589011113</v>
       </c>
       <c r="G21">
-        <v>39.17348009205781</v>
+        <v>35.67418220516473</v>
       </c>
       <c r="I21">
-        <v>2.651483680358087</v>
+        <v>2.60036524332514</v>
       </c>
       <c r="J21">
-        <v>12.26474465220821</v>
+        <v>10.46184312139657</v>
       </c>
       <c r="K21">
-        <v>20.43471351218465</v>
+        <v>17.78499000634188</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.81588630477072</v>
       </c>
       <c r="M21">
-        <v>14.54527242841979</v>
+        <v>12.68872562484983</v>
       </c>
       <c r="N21">
-        <v>7.962522327516318</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.74074630203047</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.072227313208378</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.21376178248575</v>
+        <v>18.00691611597939</v>
       </c>
       <c r="C22">
-        <v>8.94675646127542</v>
+        <v>9.365563844302249</v>
       </c>
       <c r="D22">
-        <v>5.577700577643144</v>
+        <v>5.97262075282673</v>
       </c>
       <c r="E22">
-        <v>8.317015436196904</v>
+        <v>7.901698529547662</v>
       </c>
       <c r="F22">
-        <v>28.60042178171652</v>
+        <v>24.77265404043546</v>
       </c>
       <c r="G22">
-        <v>40.05440755278275</v>
+        <v>37.18801735274012</v>
       </c>
       <c r="I22">
-        <v>2.545182446667118</v>
+        <v>2.580257575426657</v>
       </c>
       <c r="J22">
-        <v>12.36476388212301</v>
+        <v>9.879220348971542</v>
       </c>
       <c r="K22">
-        <v>20.63341576492224</v>
+        <v>17.61763472026792</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.6064906731302</v>
       </c>
       <c r="M22">
-        <v>15.03245568544903</v>
+        <v>12.70316665057895</v>
       </c>
       <c r="N22">
-        <v>8.143853734551204</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.20994436589126</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.25057106724061</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.87823334205573</v>
+        <v>17.67279104272819</v>
       </c>
       <c r="C23">
-        <v>8.8170918506788</v>
+        <v>9.251574336609217</v>
       </c>
       <c r="D23">
-        <v>5.553023274043822</v>
+        <v>5.890023092256627</v>
       </c>
       <c r="E23">
-        <v>8.253537994191722</v>
+        <v>7.829526854867764</v>
       </c>
       <c r="F23">
-        <v>28.33326676862972</v>
+        <v>24.85032156610874</v>
       </c>
       <c r="G23">
-        <v>39.67408090632622</v>
+        <v>36.32015153133181</v>
       </c>
       <c r="I23">
-        <v>2.546945682822046</v>
+        <v>2.507906596677982</v>
       </c>
       <c r="J23">
-        <v>12.32923207715135</v>
+        <v>10.29786165677859</v>
       </c>
       <c r="K23">
-        <v>20.56866082457597</v>
+        <v>17.77878211956929</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.76833891271576</v>
       </c>
       <c r="M23">
-        <v>14.76995924438611</v>
+        <v>12.75310392878768</v>
       </c>
       <c r="N23">
-        <v>8.044981790673416</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.96095257419386</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.154815973046382</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.54070335774641</v>
+        <v>16.35701502812199</v>
       </c>
       <c r="C24">
-        <v>8.342224170676902</v>
+        <v>8.768890739137975</v>
       </c>
       <c r="D24">
-        <v>5.465982403206775</v>
+        <v>5.63777208321484</v>
       </c>
       <c r="E24">
-        <v>8.000929545815309</v>
+        <v>7.570885710851491</v>
       </c>
       <c r="F24">
-        <v>27.24440159117159</v>
+        <v>24.73682568258704</v>
       </c>
       <c r="G24">
-        <v>38.09529780523845</v>
+        <v>33.7367086641054</v>
       </c>
       <c r="I24">
-        <v>2.921056949869404</v>
+        <v>2.811379254522932</v>
       </c>
       <c r="J24">
-        <v>12.1742916885162</v>
+        <v>11.39572337746107</v>
       </c>
       <c r="K24">
-        <v>20.26829636040332</v>
+        <v>18.13078915375284</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.20689346398267</v>
       </c>
       <c r="M24">
-        <v>13.74334147667463</v>
+        <v>12.747757239051</v>
       </c>
       <c r="N24">
-        <v>7.672388258004342</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.96550568578698</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.785434510951726</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97431204100374</v>
+        <v>14.84670227839829</v>
       </c>
       <c r="C25">
-        <v>7.80913232807391</v>
+        <v>8.072384250898743</v>
       </c>
       <c r="D25">
-        <v>5.368724814269613</v>
+        <v>5.451826016215978</v>
       </c>
       <c r="E25">
-        <v>7.730653521629296</v>
+        <v>7.340979226171323</v>
       </c>
       <c r="F25">
-        <v>26.08406060218242</v>
+        <v>23.95258728543527</v>
       </c>
       <c r="G25">
-        <v>36.41165261913793</v>
+        <v>32.54222439316655</v>
       </c>
       <c r="I25">
-        <v>3.343117151492101</v>
+        <v>3.171543940878629</v>
       </c>
       <c r="J25">
-        <v>12.02638070637844</v>
+        <v>11.39854835673498</v>
       </c>
       <c r="K25">
-        <v>19.97126963010823</v>
+        <v>18.12302039697099</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.38993612904737</v>
       </c>
       <c r="M25">
-        <v>12.55138624971926</v>
+        <v>12.48591409531026</v>
       </c>
       <c r="N25">
-        <v>7.268680359110194</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.76326726718869</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.369325600012131</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
